--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\tagger-benchmark\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695627FF-5F26-4132-AA46-2591B1609B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED375FE-369A-40F7-A27D-E8DCC820A5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -322,7 +322,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -602,24 +602,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -628,7 +628,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1480,9 +1480,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
@@ -1502,7 +1505,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="13" t="s">
@@ -1564,10 +1567,10 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1603,8 +1606,8 @@
       <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1636,8 +1639,8 @@
       <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -1671,8 +1674,8 @@
       <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>24</v>
@@ -1706,8 +1709,8 @@
       <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
         <v>25</v>
@@ -1741,8 +1744,8 @@
       <c r="W6" s="14"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -1774,8 +1777,8 @@
       <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -1811,8 +1814,8 @@
       <c r="W8" s="14"/>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -1846,8 +1849,8 @@
       <c r="W9" s="14"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1883,8 +1886,8 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -1918,8 +1921,8 @@
       <c r="W11" s="14"/>
     </row>
     <row r="12" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -1963,7 +1966,7 @@
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="13" t="s">
@@ -2025,10 +2028,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
         <v>21</v>
@@ -2064,8 +2067,8 @@
       <c r="W15" s="14"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
         <v>22</v>
@@ -2101,8 +2104,8 @@
       <c r="W16" s="14"/>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
@@ -2138,8 +2141,8 @@
       <c r="W17" s="14"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
         <v>24</v>
@@ -2177,8 +2180,8 @@
       <c r="W18" s="14"/>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
         <v>25</v>
@@ -2214,8 +2217,8 @@
       <c r="W19" s="14"/>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
         <v>26</v>
@@ -2251,8 +2254,8 @@
       <c r="W20" s="14"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
         <v>27</v>
@@ -2288,8 +2291,8 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
         <v>28</v>
@@ -2327,8 +2330,8 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
         <v>29</v>
@@ -2364,8 +2367,8 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
         <v>30</v>
@@ -2399,8 +2402,8 @@
       <c r="W24" s="14"/>
     </row>
     <row r="25" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
         <v>31</v>
@@ -2446,7 +2449,7 @@
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="13" t="s">
@@ -2505,10 +2508,10 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2" t="s">
         <v>21</v>
@@ -2537,8 +2540,8 @@
       <c r="V28" s="14"/>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2" t="s">
         <v>22</v>
@@ -2571,8 +2574,8 @@
       <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2" t="s">
         <v>23</v>
@@ -2603,8 +2606,8 @@
       <c r="V30" s="14"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2" t="s">
         <v>24</v>
@@ -2637,8 +2640,8 @@
       <c r="V31" s="14"/>
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
         <v>25</v>
@@ -2669,8 +2672,8 @@
       <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2" t="s">
         <v>26</v>
@@ -2699,8 +2702,8 @@
       <c r="V33" s="14"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2" t="s">
         <v>27</v>
@@ -2729,8 +2732,8 @@
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2" t="s">
         <v>28</v>
@@ -2761,8 +2764,8 @@
       <c r="V35" s="14"/>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2" t="s">
         <v>29</v>
@@ -2793,8 +2796,8 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2" t="s">
         <v>30</v>
@@ -2827,8 +2830,8 @@
       <c r="V37" s="14"/>
     </row>
     <row r="38" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2" t="s">
         <v>31</v>
@@ -2869,7 +2872,7 @@
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="13" t="s">
@@ -2925,10 +2928,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
         <v>21</v>
@@ -2962,8 +2965,8 @@
       <c r="U41" s="14"/>
     </row>
     <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
         <v>22</v>
@@ -2997,8 +3000,8 @@
       <c r="U42" s="14"/>
     </row>
     <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
         <v>23</v>
@@ -3030,8 +3033,8 @@
       <c r="U43" s="14"/>
     </row>
     <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2" t="s">
         <v>24</v>
@@ -3063,8 +3066,8 @@
       <c r="U44" s="14"/>
     </row>
     <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2" t="s">
         <v>25</v>
@@ -3096,8 +3099,8 @@
       <c r="U45" s="14"/>
     </row>
     <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
@@ -3131,8 +3134,8 @@
       <c r="U46" s="14"/>
     </row>
     <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="1"/>
       <c r="D47" s="2" t="s">
         <v>27</v>
@@ -3166,8 +3169,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2" t="s">
         <v>28</v>
@@ -3203,8 +3206,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2" t="s">
         <v>29</v>
@@ -3236,8 +3239,8 @@
       <c r="U49" s="14"/>
     </row>
     <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2" t="s">
         <v>30</v>
@@ -3273,8 +3276,8 @@
       <c r="U50" s="14"/>
     </row>
     <row r="51" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="1"/>
       <c r="D51" s="2" t="s">
         <v>31</v>
@@ -3320,7 +3323,7 @@
       <c r="A53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="19"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="13" t="s">
@@ -3373,10 +3376,10 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
         <v>21</v>
@@ -3409,8 +3412,8 @@
       <c r="T54" s="14"/>
     </row>
     <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="1"/>
       <c r="D55" s="2" t="s">
         <v>22</v>
@@ -3445,8 +3448,8 @@
       <c r="T55" s="14"/>
     </row>
     <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="1"/>
       <c r="D56" s="2" t="s">
         <v>23</v>
@@ -3477,8 +3480,8 @@
       <c r="T56" s="14"/>
     </row>
     <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2" t="s">
         <v>24</v>
@@ -3509,8 +3512,8 @@
       <c r="T57" s="14"/>
     </row>
     <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2" t="s">
         <v>25</v>
@@ -3545,8 +3548,8 @@
       <c r="T58" s="14"/>
     </row>
     <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2" t="s">
         <v>26</v>
@@ -3577,8 +3580,8 @@
       <c r="T59" s="14"/>
     </row>
     <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2" t="s">
         <v>27</v>
@@ -3611,8 +3614,8 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2" t="s">
         <v>28</v>
@@ -3645,8 +3648,8 @@
       <c r="T61" s="14"/>
     </row>
     <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2" t="s">
         <v>29</v>
@@ -3679,8 +3682,8 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2" t="s">
         <v>30</v>
@@ -3715,8 +3718,8 @@
       <c r="T63" s="14"/>
     </row>
     <row r="64" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2" t="s">
         <v>31</v>
@@ -3759,7 +3762,7 @@
       <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="19"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="13" t="s">
@@ -3824,10 +3827,10 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2" t="s">
         <v>21</v>
@@ -3862,8 +3865,8 @@
       <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="1"/>
       <c r="D68" s="2" t="s">
         <v>22</v>
@@ -3900,8 +3903,8 @@
       <c r="X68" s="14"/>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="1"/>
       <c r="D69" s="2" t="s">
         <v>23</v>
@@ -3940,8 +3943,8 @@
       <c r="X69" s="14"/>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2" t="s">
         <v>24</v>
@@ -3974,8 +3977,8 @@
       <c r="X70" s="14"/>
     </row>
     <row r="71" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2" t="s">
         <v>25</v>
@@ -4012,8 +4015,8 @@
       <c r="X71" s="14"/>
     </row>
     <row r="72" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="1"/>
       <c r="D72" s="2" t="s">
         <v>26</v>
@@ -4050,8 +4053,8 @@
       <c r="X72" s="14"/>
     </row>
     <row r="73" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2" t="s">
         <v>27</v>
@@ -4088,8 +4091,8 @@
       <c r="X73" s="14"/>
     </row>
     <row r="74" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2" t="s">
         <v>28</v>
@@ -4126,8 +4129,8 @@
       <c r="X74" s="14"/>
     </row>
     <row r="75" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2" t="s">
         <v>29</v>
@@ -4164,8 +4167,8 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="26"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2" t="s">
         <v>30</v>
@@ -4200,8 +4203,8 @@
       <c r="X76" s="14"/>
     </row>
     <row r="77" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="27"/>
-      <c r="B77" s="21"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2" t="s">
         <v>31</v>
@@ -4262,10 +4265,10 @@
         <v>21</v>
       </c>
       <c r="E81">
-        <f>SUM(E2:X2)+SUM(E15:X15)+SUM(E28:X28)+SUM(E41:X41)+SUM(E54:X54)+SUM(E67:X67)</f>
+        <f t="shared" ref="E81:E91" si="0">SUM(E2:X2)+SUM(E15:X15)+SUM(E28:X28)+SUM(E41:X41)+SUM(E54:X54)+SUM(E67:X67)</f>
         <v>21</v>
       </c>
-      <c r="F81" s="28">
+      <c r="F81" s="19">
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="G81" s="5">
@@ -4275,47 +4278,47 @@
       <c r="I81" s="12">
         <v>1</v>
       </c>
-      <c r="J81" s="22" t="s">
+      <c r="J81" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="24"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="31"/>
     </row>
     <row r="82" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="30">
-        <f>SUM(E3:X3)+SUM(E16:X16)+SUM(E29:X29)+SUM(E42:X42)+SUM(E55:X55)+SUM(E68:X68)</f>
+      <c r="E82" s="20">
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-      <c r="F82" s="31">
+      <c r="F82" s="21">
         <v>2.8700000000000002E-3</v>
       </c>
-      <c r="G82" s="32">
+      <c r="G82" s="22">
         <f t="array" aca="1" ref="G82" ca="1">Table1[[#This Row],[Cost (USD)]]*_FV($I$88,"Price")</f>
         <v>0.88840850000000005</v>
       </c>
       <c r="I82" s="6">
         <v>0.5</v>
       </c>
-      <c r="J82" s="22" t="s">
+      <c r="J82" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="24"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="31"/>
     </row>
     <row r="83" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>23</v>
       </c>
       <c r="E83">
-        <f>SUM(E4:X4)+SUM(E17:X17)+SUM(E30:X30)+SUM(E43:X43)+SUM(E56:X56)+SUM(E69:X69)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F83" s="28">
+      <c r="F83" s="19">
         <v>5.67E-2</v>
       </c>
       <c r="G83" s="5">
@@ -4328,19 +4331,19 @@
       <c r="J83" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="24"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="31"/>
     </row>
     <row r="84" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>24</v>
       </c>
       <c r="E84">
-        <f>SUM(E5:X5)+SUM(E18:X18)+SUM(E31:X31)+SUM(E44:X44)+SUM(E57:X57)+SUM(E70:X70)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F84" s="28">
+      <c r="F84" s="19">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="G84" s="5">
@@ -4353,19 +4356,19 @@
       <c r="J84" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="24"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="31"/>
     </row>
     <row r="85" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>25</v>
       </c>
       <c r="E85">
-        <f>SUM(E6:X6)+SUM(E19:X19)+SUM(E32:X32)+SUM(E45:X45)+SUM(E58:X58)+SUM(E71:X71)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F85" s="28">
+      <c r="F85" s="19">
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="G85" s="5">
@@ -4378,19 +4381,19 @@
       <c r="J85" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="24"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="31"/>
     </row>
     <row r="86" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>26</v>
       </c>
       <c r="E86">
-        <f>SUM(E7:X7)+SUM(E20:X20)+SUM(E33:X33)+SUM(E46:X46)+SUM(E59:X59)+SUM(E72:X72)</f>
+        <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
-      <c r="F86" s="28">
+      <c r="F86" s="19">
         <v>6.88E-2</v>
       </c>
       <c r="G86" s="5">
@@ -4403,19 +4406,19 @@
       <c r="J86" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="24"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="31"/>
     </row>
     <row r="87" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>27</v>
       </c>
       <c r="E87">
-        <f>SUM(E8:X8)+SUM(E21:X21)+SUM(E34:X34)+SUM(E47:X47)+SUM(E60:X60)+SUM(E73:X73)</f>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-      <c r="F87" s="28">
+      <c r="F87" s="19">
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="G87" s="5">
@@ -4428,10 +4431,10 @@
         <v>28</v>
       </c>
       <c r="E88">
-        <f>SUM(E9:X9)+SUM(E22:X22)+SUM(E35:X35)+SUM(E48:X48)+SUM(E61:X61)+SUM(E74:X74)</f>
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="F88" s="28">
+      <c r="F88" s="19">
         <v>2.12E-2</v>
       </c>
       <c r="G88" s="5">
@@ -4447,10 +4450,10 @@
         <v>29</v>
       </c>
       <c r="E89">
-        <f>SUM(E10:X10)+SUM(E23:X23)+SUM(E36:X36)+SUM(E49:X49)+SUM(E62:X62)+SUM(E75:X75)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F89" s="28">
+      <c r="F89" s="19">
         <v>6.2199999999999998E-2</v>
       </c>
       <c r="G89" s="5">
@@ -4459,17 +4462,17 @@
       </c>
     </row>
     <row r="90" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="30">
-        <f>SUM(E11:X11)+SUM(E24:X24)+SUM(E37:X37)+SUM(E50:X50)+SUM(E63:X63)+SUM(E76:X76)</f>
+      <c r="E90" s="20">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F90" s="31">
+      <c r="F90" s="21">
         <v>3.2599999999999999E-3</v>
       </c>
-      <c r="G90" s="32">
+      <c r="G90" s="22">
         <f t="array" aca="1" ref="G90" ca="1">Table1[[#This Row],[Cost (USD)]]*_FV($I$88,"Price")</f>
         <v>1.0091330000000001</v>
       </c>
@@ -4479,10 +4482,10 @@
         <v>31</v>
       </c>
       <c r="E91">
-        <f>SUM(E12:X12)+SUM(E25:X25)+SUM(E38:X38)+SUM(E51:X51)+SUM(E64:X64)+SUM(E77:X77)</f>
+        <f t="shared" si="0"/>
         <v>-22</v>
       </c>
-      <c r="F91" s="28">
+      <c r="F91" s="19">
         <v>9.5699999999999995E-4</v>
       </c>
       <c r="G91" s="5">
@@ -4492,8 +4495,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J82:M82"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="J85:M85"/>
     <mergeCell ref="A41:A51"/>
@@ -4510,9 +4511,11 @@
     <mergeCell ref="B14:B25"/>
     <mergeCell ref="B66:B77"/>
     <mergeCell ref="A15:A25"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="J82:M82"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="36" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\tagger-benchmark\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED375FE-369A-40F7-A27D-E8DCC820A5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D82FF2-EA53-4A93-BD1D-DDC79A3A97EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="86">
   <si>
     <t>"Mui..♡"</t>
   </si>
@@ -374,7 +374,7 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +586,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -606,11 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -619,7 +620,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -632,6 +641,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC7CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1147,8 +1161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="D80:G91" totalsRowShown="0">
-  <autoFilter ref="D80:G91" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="D80:G90" totalsRowShown="0">
+  <autoFilter ref="D80:G90" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LLM"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Score">
@@ -1483,7 +1497,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:X90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N76" sqref="N76"/>
@@ -1505,7 +1519,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="13" t="s">
@@ -1567,10 +1581,10 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1606,8 +1620,8 @@
       <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1639,8 +1653,8 @@
       <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -1674,8 +1688,8 @@
       <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>24</v>
@@ -1709,8 +1723,8 @@
       <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
         <v>25</v>
@@ -1744,8 +1758,8 @@
       <c r="W6" s="14"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -1777,8 +1791,8 @@
       <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -1814,8 +1828,8 @@
       <c r="W8" s="14"/>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -1849,8 +1863,8 @@
       <c r="W9" s="14"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1886,8 +1900,8 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -1921,8 +1935,8 @@
       <c r="W11" s="14"/>
     </row>
     <row r="12" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -1966,7 +1980,7 @@
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="13" t="s">
@@ -2028,10 +2042,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
         <v>21</v>
@@ -2067,8 +2081,8 @@
       <c r="W15" s="14"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
         <v>22</v>
@@ -2104,8 +2118,8 @@
       <c r="W16" s="14"/>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
@@ -2141,8 +2155,8 @@
       <c r="W17" s="14"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
         <v>24</v>
@@ -2180,8 +2194,8 @@
       <c r="W18" s="14"/>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
         <v>25</v>
@@ -2217,8 +2231,8 @@
       <c r="W19" s="14"/>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
         <v>26</v>
@@ -2254,8 +2268,8 @@
       <c r="W20" s="14"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
         <v>27</v>
@@ -2291,8 +2305,8 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
         <v>28</v>
@@ -2330,8 +2344,8 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
         <v>29</v>
@@ -2367,8 +2381,8 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
         <v>30</v>
@@ -2402,8 +2416,8 @@
       <c r="W24" s="14"/>
     </row>
     <row r="25" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
         <v>31</v>
@@ -2449,7 +2463,7 @@
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="13" t="s">
@@ -2508,10 +2522,10 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2" t="s">
         <v>21</v>
@@ -2540,8 +2554,8 @@
       <c r="V28" s="14"/>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2" t="s">
         <v>22</v>
@@ -2574,8 +2588,8 @@
       <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2" t="s">
         <v>23</v>
@@ -2606,8 +2620,8 @@
       <c r="V30" s="14"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2" t="s">
         <v>24</v>
@@ -2640,8 +2654,8 @@
       <c r="V31" s="14"/>
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
         <v>25</v>
@@ -2672,8 +2686,8 @@
       <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2" t="s">
         <v>26</v>
@@ -2702,8 +2716,8 @@
       <c r="V33" s="14"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2" t="s">
         <v>27</v>
@@ -2732,8 +2746,8 @@
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2" t="s">
         <v>28</v>
@@ -2764,8 +2778,8 @@
       <c r="V35" s="14"/>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2" t="s">
         <v>29</v>
@@ -2796,8 +2810,8 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2" t="s">
         <v>30</v>
@@ -2830,8 +2844,8 @@
       <c r="V37" s="14"/>
     </row>
     <row r="38" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2" t="s">
         <v>31</v>
@@ -2872,7 +2886,7 @@
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="13" t="s">
@@ -2928,10 +2942,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
         <v>21</v>
@@ -2965,8 +2979,8 @@
       <c r="U41" s="14"/>
     </row>
     <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
         <v>22</v>
@@ -3000,8 +3014,8 @@
       <c r="U42" s="14"/>
     </row>
     <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
         <v>23</v>
@@ -3033,8 +3047,8 @@
       <c r="U43" s="14"/>
     </row>
     <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2" t="s">
         <v>24</v>
@@ -3066,8 +3080,8 @@
       <c r="U44" s="14"/>
     </row>
     <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2" t="s">
         <v>25</v>
@@ -3099,8 +3113,8 @@
       <c r="U45" s="14"/>
     </row>
     <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
@@ -3134,8 +3148,8 @@
       <c r="U46" s="14"/>
     </row>
     <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="1"/>
       <c r="D47" s="2" t="s">
         <v>27</v>
@@ -3169,8 +3183,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2" t="s">
         <v>28</v>
@@ -3206,8 +3220,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2" t="s">
         <v>29</v>
@@ -3239,8 +3253,8 @@
       <c r="U49" s="14"/>
     </row>
     <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2" t="s">
         <v>30</v>
@@ -3276,8 +3290,8 @@
       <c r="U50" s="14"/>
     </row>
     <row r="51" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="1"/>
       <c r="D51" s="2" t="s">
         <v>31</v>
@@ -3323,7 +3337,7 @@
       <c r="A53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="13" t="s">
@@ -3376,10 +3390,10 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
         <v>21</v>
@@ -3412,8 +3426,8 @@
       <c r="T54" s="14"/>
     </row>
     <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="1"/>
       <c r="D55" s="2" t="s">
         <v>22</v>
@@ -3448,8 +3462,8 @@
       <c r="T55" s="14"/>
     </row>
     <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="24"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="1"/>
       <c r="D56" s="2" t="s">
         <v>23</v>
@@ -3480,8 +3494,8 @@
       <c r="T56" s="14"/>
     </row>
     <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="24"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2" t="s">
         <v>24</v>
@@ -3512,8 +3526,8 @@
       <c r="T57" s="14"/>
     </row>
     <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="24"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2" t="s">
         <v>25</v>
@@ -3548,8 +3562,8 @@
       <c r="T58" s="14"/>
     </row>
     <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2" t="s">
         <v>26</v>
@@ -3580,8 +3594,8 @@
       <c r="T59" s="14"/>
     </row>
     <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2" t="s">
         <v>27</v>
@@ -3614,8 +3628,8 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2" t="s">
         <v>28</v>
@@ -3648,8 +3662,8 @@
       <c r="T61" s="14"/>
     </row>
     <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2" t="s">
         <v>29</v>
@@ -3682,8 +3696,8 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2" t="s">
         <v>30</v>
@@ -3718,8 +3732,8 @@
       <c r="T63" s="14"/>
     </row>
     <row r="64" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2" t="s">
         <v>31</v>
@@ -3762,7 +3776,7 @@
       <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="13" t="s">
@@ -3827,10 +3841,10 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2" t="s">
         <v>21</v>
@@ -3865,8 +3879,8 @@
       <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="1"/>
       <c r="D68" s="2" t="s">
         <v>22</v>
@@ -3903,8 +3917,8 @@
       <c r="X68" s="14"/>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="1"/>
       <c r="D69" s="2" t="s">
         <v>23</v>
@@ -3943,8 +3957,8 @@
       <c r="X69" s="14"/>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2" t="s">
         <v>24</v>
@@ -3977,8 +3991,8 @@
       <c r="X70" s="14"/>
     </row>
     <row r="71" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2" t="s">
         <v>25</v>
@@ -4015,8 +4029,8 @@
       <c r="X71" s="14"/>
     </row>
     <row r="72" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
-      <c r="B72" s="24"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="1"/>
       <c r="D72" s="2" t="s">
         <v>26</v>
@@ -4053,8 +4067,8 @@
       <c r="X72" s="14"/>
     </row>
     <row r="73" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2" t="s">
         <v>27</v>
@@ -4091,8 +4105,8 @@
       <c r="X73" s="14"/>
     </row>
     <row r="74" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
-      <c r="B74" s="24"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2" t="s">
         <v>28</v>
@@ -4129,8 +4143,8 @@
       <c r="X74" s="14"/>
     </row>
     <row r="75" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
-      <c r="B75" s="24"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2" t="s">
         <v>29</v>
@@ -4167,8 +4181,8 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2" t="s">
         <v>30</v>
@@ -4203,8 +4217,8 @@
       <c r="X76" s="14"/>
     </row>
     <row r="77" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
-      <c r="B77" s="25"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2" t="s">
         <v>31</v>
@@ -4261,17 +4275,17 @@
       </c>
     </row>
     <row r="81" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" t="s">
+      <c r="D81" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E81">
-        <f t="shared" ref="E81:E91" si="0">SUM(E2:X2)+SUM(E15:X15)+SUM(E28:X28)+SUM(E41:X41)+SUM(E54:X54)+SUM(E67:X67)</f>
+      <c r="E81" s="33">
+        <f t="shared" ref="E81:E90" si="0">SUM(E2:X2)+SUM(E15:X15)+SUM(E28:X28)+SUM(E41:X41)+SUM(E54:X54)+SUM(E67:X67)</f>
         <v>21</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="34">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="35">
         <f t="array" aca="1" ref="G81" ca="1">Table1[[#This Row],[Cost (USD)]]*_FV($I$88,"Price")</f>
         <v>19.068280000000001</v>
       </c>
@@ -4281,9 +4295,9 @@
       <c r="J81" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="31"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="28"/>
     </row>
     <row r="82" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D82" s="20" t="s">
@@ -4306,9 +4320,9 @@
       <c r="J82" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="31"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="28"/>
     </row>
     <row r="83" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
@@ -4328,12 +4342,12 @@
       <c r="I83" s="7">
         <v>0.5</v>
       </c>
-      <c r="J83" s="29" t="s">
+      <c r="J83" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="31"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="28"/>
     </row>
     <row r="84" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
@@ -4353,12 +4367,12 @@
       <c r="I84" s="8">
         <v>-0.5</v>
       </c>
-      <c r="J84" s="29" t="s">
+      <c r="J84" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="31"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="28"/>
     </row>
     <row r="85" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
@@ -4378,37 +4392,37 @@
       <c r="I85" s="9">
         <v>-0.5</v>
       </c>
-      <c r="J85" s="29" t="s">
+      <c r="J85" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="31"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="28"/>
     </row>
     <row r="86" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" t="s">
+      <c r="D86" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="33">
         <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="34">
         <v>6.88E-2</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="35">
         <f t="array" aca="1" ref="G86" ca="1">Table1[[#This Row],[Cost (USD)]]*_FV($I$88,"Price")</f>
         <v>21.297039999999999</v>
       </c>
       <c r="I86" s="10">
         <v>-1</v>
       </c>
-      <c r="J86" s="29" t="s">
+      <c r="J86" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="31"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="28"/>
     </row>
     <row r="87" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
@@ -4446,17 +4460,17 @@
       </c>
     </row>
     <row r="89" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D89" t="s">
+      <c r="D89" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="33">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="34">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="35">
         <f t="array" aca="1" ref="G89" ca="1">Table1[[#This Row],[Cost (USD)]]*_FV($I$88,"Price")</f>
         <v>19.254010000000001</v>
       </c>
@@ -4477,24 +4491,10 @@
         <v>1.0091330000000001</v>
       </c>
     </row>
-    <row r="91" spans="4:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D91" t="s">
-        <v>31</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="0"/>
-        <v>-22</v>
-      </c>
-      <c r="F91" s="19">
-        <v>9.5699999999999995E-4</v>
-      </c>
-      <c r="G91" s="5">
-        <f t="array" aca="1" ref="G91" ca="1">Table1[[#This Row],[Cost (USD)]]*_FV($I$88,"Price")</f>
-        <v>0.29623935000000001</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="J82:M82"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="J85:M85"/>
     <mergeCell ref="A41:A51"/>
@@ -4511,8 +4511,6 @@
     <mergeCell ref="B14:B25"/>
     <mergeCell ref="B66:B77"/>
     <mergeCell ref="A15:A25"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J82:M82"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToWidth="0" orientation="landscape" r:id="rId1"/>
